--- a/Templates/Refrigerants.xlsx
+++ b/Templates/Refrigerants.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\My Data Life\LevelUP ESG\batch input Pages\Batch-input-Page\Templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\AI\LevelUPESG\Batch-input-Page\Templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{469B4567-0D6B-4768-8FEE-864A32821948}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3953467E-59BB-4585-B7CC-5D6A9CDFC7AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{199154D2-C0D2-48ED-99FB-DC871D6581F2}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{199154D2-C0D2-48ED-99FB-DC871D6581F2}"/>
   </bookViews>
   <sheets>
     <sheet name="Refrigerants" sheetId="1" r:id="rId1"/>
@@ -660,9 +660,6 @@
     <t>company</t>
   </si>
   <si>
-    <t>Not Simplified Material Balance method</t>
-  </si>
-  <si>
     <t>Operating</t>
   </si>
   <si>
@@ -700,6 +697,9 @@
   </si>
   <si>
     <t>estimated</t>
+  </si>
+  <si>
+    <t>Screening method</t>
   </si>
 </sst>
 </file>
@@ -710,7 +710,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -730,13 +730,13 @@
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
-      <name val="Arial"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="8"/>
-      <name val="Arial"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -786,7 +786,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -810,15 +810,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1225,28 +1216,28 @@
   <dimension ref="A1:L13"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.25" style="5" customWidth="1"/>
-    <col min="2" max="2" width="20.125" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="24.25" style="5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.625" style="5" customWidth="1"/>
+    <col min="1" max="1" width="21.21875" style="5" customWidth="1"/>
+    <col min="2" max="2" width="20.109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.21875" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.6640625" style="5" customWidth="1"/>
     <col min="5" max="5" width="26" style="5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="24.125" style="5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="23.25" style="5" customWidth="1"/>
-    <col min="8" max="8" width="37.875" style="8" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="40.375" style="8" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="29.375" style="5" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="17.625" style="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="24.109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="23.21875" style="5" customWidth="1"/>
+    <col min="8" max="8" width="37.88671875" style="8" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="40.33203125" style="8" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="29.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="17.6640625" style="5" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="25" style="5" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="21.75" style="5" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="8.875" style="5"/>
+    <col min="13" max="13" width="21.77734375" style="5" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="8.88671875" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="6" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" s="6" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
         <v>188</v>
       </c>
@@ -1260,7 +1251,7 @@
         <v>2</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="F1" s="6" t="s">
         <v>1</v>
@@ -1268,10 +1259,10 @@
       <c r="G1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="9" t="s">
+      <c r="H1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="9" t="s">
+      <c r="I1" s="6" t="s">
         <v>5</v>
       </c>
       <c r="J1" s="6" t="s">
@@ -1284,7 +1275,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="128.25" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>191</v>
       </c>
@@ -1295,7 +1286,7 @@
         <v>197</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="E2" s="7" t="s">
         <v>198</v>
@@ -1306,13 +1297,13 @@
       <c r="G2" s="7" t="s">
         <v>200</v>
       </c>
-      <c r="H2" s="10" t="s">
+      <c r="H2" s="7" t="s">
         <v>201</v>
       </c>
-      <c r="I2" s="10" t="s">
+      <c r="I2" s="7" t="s">
         <v>202</v>
       </c>
-      <c r="J2" s="10" t="s">
+      <c r="J2" s="7" t="s">
         <v>203</v>
       </c>
       <c r="K2" s="7" t="s">
@@ -1322,7 +1313,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
         <v>205</v>
       </c>
@@ -1333,36 +1324,36 @@
         <v>2022</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>206</v>
+        <v>219</v>
       </c>
       <c r="E3" s="5" t="s">
         <v>8</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="G3" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="H3" s="11">
+      <c r="H3" s="5">
         <v>10</v>
       </c>
-      <c r="I3" s="11">
+      <c r="I3" s="5">
         <v>30</v>
       </c>
-      <c r="J3" s="11" t="s">
+      <c r="J3" s="5" t="s">
+        <v>207</v>
+      </c>
+      <c r="K3" s="5" t="s">
         <v>208</v>
       </c>
-      <c r="K3" s="5" t="s">
-        <v>209</v>
-      </c>
       <c r="L3" s="7" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>190</v>
@@ -1382,25 +1373,25 @@
       <c r="G4" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="H4" s="11">
+      <c r="H4" s="5">
         <v>10</v>
       </c>
-      <c r="I4" s="11">
+      <c r="I4" s="5">
         <v>30</v>
       </c>
-      <c r="J4" s="11" t="s">
-        <v>208</v>
+      <c r="J4" s="5" t="s">
+        <v>207</v>
       </c>
       <c r="K4" s="5" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="L4" s="5" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" ht="42.75" x14ac:dyDescent="0.2">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>190</v>
@@ -1409,7 +1400,7 @@
         <v>2023</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>206</v>
+        <v>219</v>
       </c>
       <c r="E5" s="5" t="s">
         <v>8</v>
@@ -1420,25 +1411,25 @@
       <c r="G5" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="H5" s="11">
+      <c r="H5" s="5">
         <v>10</v>
       </c>
-      <c r="I5" s="11">
+      <c r="I5" s="5">
         <v>30</v>
       </c>
-      <c r="J5" s="11" t="s">
-        <v>208</v>
+      <c r="J5" s="5" t="s">
+        <v>207</v>
       </c>
       <c r="K5" s="5" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="L5" s="5" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" ht="42.75" x14ac:dyDescent="0.2">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>190</v>
@@ -1447,40 +1438,40 @@
         <v>2022</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>206</v>
+        <v>219</v>
       </c>
       <c r="E6" s="5" t="s">
         <v>11</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="G6" s="5" t="s">
         <v>152</v>
       </c>
-      <c r="H6" s="11">
+      <c r="H6" s="5">
         <v>300</v>
       </c>
-      <c r="I6" s="11">
+      <c r="I6" s="5">
         <v>6000</v>
       </c>
-      <c r="J6" s="11" t="s">
-        <v>219</v>
+      <c r="J6" s="5" t="s">
+        <v>218</v>
       </c>
       <c r="K6" s="5" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="L6" s="5" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" ht="14.25" x14ac:dyDescent="0.2"/>
-    <row r="8" spans="1:12" ht="14.25" x14ac:dyDescent="0.2"/>
-    <row r="9" spans="1:12" ht="14.25" x14ac:dyDescent="0.2"/>
-    <row r="10" spans="1:12" ht="14.25" x14ac:dyDescent="0.2"/>
-    <row r="11" spans="1:12" ht="14.25" x14ac:dyDescent="0.2"/>
-    <row r="12" spans="1:12" ht="14.25" x14ac:dyDescent="0.2"/>
-    <row r="13" spans="1:12" ht="14.25" x14ac:dyDescent="0.2"/>
+        <v>209</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="14.4" x14ac:dyDescent="0.3"/>
+    <row r="8" spans="1:12" ht="14.4" x14ac:dyDescent="0.3"/>
+    <row r="9" spans="1:12" ht="14.4" x14ac:dyDescent="0.3"/>
+    <row r="10" spans="1:12" ht="14.4" x14ac:dyDescent="0.3"/>
+    <row r="11" spans="1:12" ht="14.4" x14ac:dyDescent="0.3"/>
+    <row r="12" spans="1:12" ht="14.4" x14ac:dyDescent="0.3"/>
+    <row r="13" spans="1:12" ht="14.4" x14ac:dyDescent="0.3"/>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
   <dataValidations count="6">
@@ -1490,9 +1481,6 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F3:F1048575" xr:uid="{68C4175B-FBC0-474D-B35F-026AE927CB27}">
       <formula1>"Predetermined charge (Kg),Operating,Installation,Disposal"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D3:D1048575" xr:uid="{1B9C0D5F-5C39-49B4-9309-A317A4DB60E0}">
-      <formula1>"Simplified Material Balance method , Not Simplified Material Balance method"</formula1>
-    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J3:J1048575" xr:uid="{0DA9280E-C39A-4F0C-AAF6-C8B94320A4B9}">
       <formula1>"estimated, actual"</formula1>
     </dataValidation>
@@ -1501,6 +1489,9 @@
     </dataValidation>
     <dataValidation type="decimal" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H3:I1048575" xr:uid="{2F04195F-9062-40A8-AC95-262CC43BEB60}">
       <formula1>0</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D3:D1048576" xr:uid="{0109A74E-3271-4C92-880D-C7030D9F8AB9}">
+      <formula1>"Simplified Material Balance method , Screening method"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1538,13 +1529,13 @@
       <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.875" style="1"/>
-    <col min="4" max="4" width="16.875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="8.88671875" style="1"/>
+    <col min="4" max="4" width="16.88671875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>6</v>
       </c>
@@ -1552,7 +1543,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="105" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>7</v>
       </c>
@@ -1560,7 +1551,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>8</v>
       </c>
@@ -1568,7 +1559,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>9</v>
       </c>
@@ -1576,7 +1567,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
         <v>10</v>
       </c>
@@ -1584,7 +1575,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>11</v>
       </c>
@@ -1592,7 +1583,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
         <v>12</v>
       </c>
@@ -1600,7 +1591,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="90" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>13</v>
       </c>
@@ -1608,7 +1599,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="90" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
         <v>14</v>
       </c>
@@ -1616,7 +1607,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
         <v>15</v>
       </c>
@@ -1624,7 +1615,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" ht="72" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
         <v>16</v>
       </c>
@@ -1632,7 +1623,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" ht="72" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
         <v>17</v>
       </c>
@@ -1640,7 +1631,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="90" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="s">
         <v>18</v>
       </c>
@@ -1648,7 +1639,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" ht="72" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
         <v>19</v>
       </c>
@@ -1656,767 +1647,767 @@
         <v>33</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="D15" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="D16" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="17" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="17" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D17" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="18" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="18" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D18" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="19" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="19" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D19" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="20" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="20" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D20" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="21" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="21" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D21" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="22" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="22" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D22" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="23" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="23" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D23" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="24" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="24" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D24" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="25" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="25" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D25" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="26" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="26" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D26" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="27" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="27" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D27" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="28" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="28" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D28" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="29" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="29" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D29" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="30" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="30" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D30" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="31" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="31" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D31" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="32" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="32" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D32" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="33" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="33" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D33" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="34" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="34" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D34" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="35" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="35" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D35" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="36" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="36" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D36" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="37" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="37" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D37" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="38" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="38" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D38" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="39" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="39" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D39" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="40" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="40" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D40" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="41" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="41" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D41" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="42" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="42" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D42" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="43" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="43" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D43" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="44" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="44" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D44" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="45" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="45" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D45" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="46" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="46" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D46" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="47" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="47" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D47" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="48" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="48" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D48" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="49" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="49" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D49" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="50" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="50" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D50" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="51" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="51" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D51" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="52" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="52" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D52" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="53" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="53" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D53" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="54" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="54" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D54" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="55" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="55" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D55" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="56" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="56" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D56" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="57" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="57" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D57" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="58" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="58" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D58" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="59" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="59" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D59" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="60" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="60" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D60" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="61" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="61" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D61" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="62" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="62" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D62" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="63" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="63" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D63" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="64" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="64" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D64" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="65" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="65" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D65" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="66" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="66" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D66" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="67" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="67" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D67" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="68" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="68" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D68" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="69" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="69" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D69" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="70" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="70" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D70" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="71" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="71" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D71" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="72" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="72" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D72" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="73" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="73" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D73" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="74" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="74" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D74" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="75" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="75" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D75" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="76" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="76" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D76" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="77" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="77" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D77" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="78" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="78" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D78" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="79" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="79" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D79" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="80" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="80" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D80" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="81" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="81" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D81" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="82" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="82" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D82" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="83" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="83" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D83" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="84" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="84" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D84" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="85" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="85" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D85" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="86" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="86" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D86" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="87" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="87" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D87" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="88" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="88" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D88" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="89" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="89" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D89" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="90" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="90" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D90" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="91" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="91" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D91" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="92" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="92" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D92" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="93" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="93" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D93" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="94" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="94" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D94" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="95" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="95" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D95" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="96" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="96" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D96" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="97" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="97" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D97" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="98" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="98" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D98" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="99" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="99" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D99" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="100" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="100" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D100" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="101" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="101" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D101" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="102" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="102" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D102" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="103" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="103" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D103" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="104" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="104" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D104" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="105" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="105" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D105" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="106" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="106" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D106" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="107" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="107" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D107" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="108" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="108" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D108" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="109" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="109" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D109" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="110" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="110" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D110" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="111" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="111" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D111" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="112" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="112" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D112" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="113" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="113" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D113" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="114" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="114" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D114" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="115" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="115" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D115" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="116" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="116" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D116" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="117" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="117" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D117" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="118" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="118" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D118" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="119" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="119" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D119" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="120" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="120" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D120" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="121" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="121" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D121" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="122" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="122" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D122" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="123" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="123" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D123" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="124" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="124" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D124" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="125" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="125" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D125" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="126" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="126" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D126" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="127" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="127" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D127" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="128" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="128" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D128" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="129" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="129" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D129" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="130" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="130" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D130" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="131" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="131" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D131" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="132" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="132" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D132" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="133" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="133" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D133" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="134" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="134" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D134" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="135" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="135" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D135" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="136" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="136" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D136" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="137" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="137" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D137" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="138" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="138" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D138" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="139" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="139" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D139" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="140" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="140" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D140" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="141" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="141" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D141" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="142" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="142" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D142" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="143" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="143" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D143" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="144" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="144" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D144" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="145" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="145" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D145" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="146" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="146" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D146" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="147" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="147" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D147" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="148" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="148" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D148" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="149" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="149" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D149" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="150" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="150" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D150" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="151" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="151" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D151" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="152" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="152" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D152" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="153" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="153" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D153" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="154" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="154" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D154" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="155" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="155" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D155" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="156" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="156" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D156" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="157" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="157" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D157" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="158" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="158" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D158" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="159" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="159" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D159" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="160" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="160" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D160" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="161" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="161" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D161" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="162" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="162" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D162" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="163" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="163" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D163" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="164" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="164" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D164" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="165" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="165" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D165" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="166" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="166" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D166" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="167" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="167" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D167" t="s">
         <v>186</v>
       </c>
@@ -2583,20 +2574,20 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="952decf2-c70e-41dd-b7af-a901e5274ebc" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="952decf2-c70e-41dd-b7af-a901e5274ebc" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2618,6 +2609,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{08D7ADFE-BF7D-420E-A423-11A4A65E787B}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F45C1A8D-6430-42B4-8AFA-2DF1E7ADEBFF}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
@@ -2631,12 +2630,4 @@
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{08D7ADFE-BF7D-420E-A423-11A4A65E787B}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>